--- a/Result_14/Result_1/hospital_schedule.xlsx
+++ b/Result_14/Result_1/hospital_schedule.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -518,7 +518,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Matt Noble</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Matt Noble</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2973,7 +2973,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -3204,7 +3204,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Matt Noble</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -3765,7 +3765,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3963,7 +3963,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -4095,7 +4095,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -4128,7 +4128,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -4283,7 +4283,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -4415,7 +4415,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -4481,7 +4481,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Matt Noble</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Basinger</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -4547,7 +4547,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Matt Noble</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -4613,7 +4613,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Matt Basinger</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tanner Muggli</t>
+          <t>Murray McLachlan</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -5207,7 +5207,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Isaac Siegfried</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Isaac Siegfried</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -5339,7 +5339,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Murray McLachlan</t>
+          <t>Tanner Muggli</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
